--- a/Add sectors/2. New supply chains - Commodities.xlsx
+++ b/Add sectors/2. New supply chains - Commodities.xlsx
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -5285,442 +5285,442 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AN3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AO3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AR3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AS3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AU3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AV3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AW3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AY3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AZ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BN3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BO3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BP3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BQ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BR3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BS3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BT3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BU3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BV3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BW3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BX3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BY3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -6727,442 +6727,442 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AN3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AO3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AR3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AS3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AU3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AV3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AW3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AY3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AZ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BN3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BO3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BP3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BQ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BR3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BS3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BT3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BU3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BV3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BW3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BX3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BY3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8450,7 +8450,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -9726,442 +9726,442 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AN3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AO3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AR3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AS3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AU3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AV3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AW3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AY3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AZ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BN3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BO3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BP3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BQ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BR3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BS3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BT3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BU3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BV3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BW3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BX3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BY3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CA3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CB3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CC3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CD3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CE3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CF3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CG3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CH3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CJ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CK3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="CL3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CM3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -10478,12 +10478,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>n.</t>
         </is>
       </c>
     </row>
@@ -10502,12 +10502,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>n.</t>
+          <t>kg</t>
         </is>
       </c>
     </row>

--- a/Add sectors/2. New supply chains - Commodities.xlsx
+++ b/Add sectors/2. New supply chains - Commodities.xlsx
@@ -473,17 +473,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Additives/Blending Components</t>
+          <t>Paper waste for treatment: biogasification and land application</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial intermediation (67)</t>
+          <t>Landfill of waste: Inert/metal/hazardous</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -498,17 +498,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Changes in inventories</t>
+          <t>Changes in valuables</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: Medium-skilled</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CO2</t>
+          <t>CH4</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -520,118 +520,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Air transport services (62)</t>
+          <t>Paddy rice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Activities of membership organisation n.e.c. (91)</t>
+          <t>Petroleum Refinery</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Changes in valuables</t>
+          <t>Final consumption expenditure by government</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: High-skilled</t>
+          <t>Operating surplus: Remaining net operating surplus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N2O</t>
+          <t>CO2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aluminium and aluminium products</t>
+          <t>Secondary paper for treatment; Re-processing of secondary paper into new pulp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Air transport (62)</t>
+          <t>Health and social work (85)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Final consumption expenditure by government</t>
+          <t>Final consumption expenditure by non-profit organisations serving households (NPISH)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: Low-skilled</t>
+          <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: High-skilled</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CH4</t>
+          <t>N2O</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aluminium ores and concentrates</t>
+          <t>Motor Gasoline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aluminium production</t>
+          <t>Publishing, printing and reproduction of recorded media (22)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Final consumption expenditure by households</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: Medium-skilled</t>
+          <t>Compensation of employees; wages, salaries, &amp; employers' social contributions: Low-skilled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Animal products nec</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animal products nec</t>
+          <t>Manufacture of machinery and equipment n.e.c. (29)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Final consumption expenditure by non-profit organisations serving households (NPISH)</t>
+          <t>Final consumption expenditure by households</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Operating surplus: Consumption of fixed capital</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -643,39 +643,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthracite</t>
+          <t>Copper ores and concentrates</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biogasification of food waste, incl. land application</t>
+          <t>Insurance and pension funding, except compulsory social security (66)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>Changes in inventories</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Operating surplus: Remaining net operating surplus</t>
+          <t>Taxes less subsidies on products purchased: Total</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ash for treatment; Re-processing of ash into clinker</t>
+          <t>Chemical and fertilizer minerals; salt and other mining and quarrying products n.e.c.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biogasification of paper, incl. land application</t>
+          <t>Production of electricity by hydro</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -687,192 +687,192 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aviation Gasoline</t>
+          <t>Oil/hazardous waste for treatment: incineration</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biogasification of sewage slugde, incl. land application</t>
+          <t>Mining of lead, zinc and tin ores and concentrates</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Taxes less subsidies on products purchased: Total</t>
+          <t>Operating surplus: Consumption of fixed capital</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BKB/Peat Briquettes</t>
+          <t>Dairy products</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Blast furnace gas production</t>
+          <t>Other non-ferrous metal production</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
+          <t>Coal Tar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Casting of metals</t>
+          <t>Manufacture of wearing apparel; dressing and dyeing of fur (18)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Lead; zinc and tin and products thereof</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cattle farming</t>
+          <t>Public administration and defence; compulsory social security (75)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Biodiesels</t>
+          <t>Sub-Bituminous Coal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chemicals nec</t>
+          <t>Re-processing of secondary steel into new steel</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Secondary other non-ferrous metals for treatment; Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Collection, purification and distribution of water (41)</t>
+          <t>Re-processing of secondary lead into new lead</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Biogasoline</t>
+          <t>Charcoal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Composting of food waste, incl. land application</t>
+          <t>Mining of chemical and fertilizer minerals, production of salt, other mining and quarrying n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bitumen</t>
+          <t>Secondary aluminium for treatment; Re-processing of secondary aluminium into new aluminium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Composting of paper and wood, incl. land application</t>
+          <t>Manure treatment (conventional), storage and land application</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Blast Furnace Gas</t>
+          <t>Computer and related services (72)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Computer and related activities (72)</t>
+          <t>Production of electricity by other renewables</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bottles for treatment; Recycling of bottles by direct reuse</t>
+          <t>Patent Fuel</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Construction (45)</t>
+          <t>Hotels and restaurants (55)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bricks; tiles and construction products; in baked clay</t>
+          <t>Wood waste for treatment: incineration</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Copper production</t>
+          <t>Composting of paper and wood, incl. land application</t>
         </is>
       </c>
     </row>
@@ -884,1946 +884,1946 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Hotel and restaurant services (55)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cultivation of cereal grains nec</t>
+          <t>Manufacture of coke oven products</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cement; lime and plaster</t>
+          <t>Iron ores</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cultivation of crops nec</t>
+          <t>Production of electricity by coal</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ceramic goods</t>
+          <t>Pigs</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cultivation of oil seeds</t>
+          <t>Recreational, cultural and sporting activities (92)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>WE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cereal grains nec</t>
+          <t>Other Liquid Biofuels</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cultivation of paddy rice</t>
+          <t>Landfill of waste: Plastic</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Charcoal</t>
+          <t>Services auxiliary to financial intermediation (67)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cultivation of plant-based fibers</t>
+          <t>Recycling of waste and scrap</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chemical and fertilizer minerals; salt and other mining and quarrying products n.e.c.</t>
+          <t>Inert/metal/hazardous waste for treatment: landfill</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cultivation of sugar cane, sugar beet</t>
+          <t>Cultivation of cereal grains nec</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chemicals nec</t>
+          <t>Paper and paper products</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cultivation of vegetables, fruit, nuts</t>
+          <t>Other service activities (93)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coal Tar</t>
+          <t>Retail trade services of motor fuel</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cultivation of wheat</t>
+          <t>Financial intermediation, except insurance and pension funding (65)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Coke Oven Coke</t>
+          <t>Wearing apparel; furs (18)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Distribution and trade of electricity</t>
+          <t>Cultivation of oil seeds</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Coke oven gas</t>
+          <t>Foundry work services</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Distribution of gaseous fuels through mains</t>
+          <t>Re-processing of secondary plastic into new plastic</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Coking Coal</t>
+          <t>BKB/Peat Briquettes</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Education (80)</t>
+          <t>Manufacture of electrical machinery and apparatus n.e.c. (31)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Collected and purified water; distribution services of water (41)</t>
+          <t>Oxygen Steel Furnace Gas</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Extra-territorial organizations and bodies</t>
+          <t>Production of meat products nec</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Computer and related services (72)</t>
+          <t>Sale; maintenance; repair of motor vehicles; motor vehicles parts; motorcycles; motor cycles parts and accessoiries</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Extraction of crude petroleum and services related to crude oil extraction, excluding surveying</t>
+          <t>Cattle farming</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Construction work (45)</t>
+          <t>Oil seeds</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Extraction of natural gas and services related to natural gas extraction, excluding surveying</t>
+          <t>Manufacture of bricks, tiles and construction products, in baked clay</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Copper ores and concentrates</t>
+          <t>Supporting and auxiliary transport services; travel agency services (63)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Extraction, liquefaction, and regasification of other petroleum and gaseous materials</t>
+          <t>Manufacture of furniture; manufacturing n.e.c. (36)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Copper products</t>
+          <t>Renting services of machinery and equipment without operator and of personal and household goods (71)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Financial intermediation, except insurance and pension funding (65)</t>
+          <t>Construction (45)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Crops nec</t>
+          <t>Sugar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fishing, operating of fish hatcheries and fish farms; service activities incidental to fishing (05)</t>
+          <t>Manufacture of office machinery and computers (30)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Crude petroleum and services related to crude oil extraction; excluding surveying</t>
+          <t>Meat products nec</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Forestry, logging and related service activities (02)</t>
+          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dairy products</t>
+          <t>Other non-metallic mineral products</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Health and social work (85)</t>
+          <t>Processing of dairy products</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Distribution and trade services of electricity</t>
+          <t>Secondary glass for treatment; Re-processing of secondary glass into new glass</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hotels and restaurants (55)</t>
+          <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Distribution services of gaseous fuels through mains</t>
+          <t>Liquefied Petroleum Gases (LPG)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Incineration of waste: Food</t>
+          <t>Poultry farming</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Education services (80)</t>
+          <t>Precious metals</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Incineration of waste: Metals and Inert materials</t>
+          <t>Cultivation of wheat</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Electrical machinery and apparatus n.e.c. (31)</t>
+          <t>Refinery Gas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Incineration of waste: Oil/Hazardous waste</t>
+          <t>Biogasification of sewage slugde, incl. land application</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Electricity from fossil fuels</t>
+          <t>Private households with employed persons (95)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Incineration of waste: Paper</t>
+          <t>Mining of other non-ferrous metal ores and concentrates</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Electricity from nuclear</t>
+          <t>Processed rice</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Incineration of waste: Plastic</t>
+          <t>Manufacture of beverages</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Electricity from renewables</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Incineration of waste: Textiles</t>
+          <t>Production of electricity by gas</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ethane</t>
+          <t>Manure (conventional treatment)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Incineration of waste: Wood</t>
+          <t>Collection, purification and distribution of water (41)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extra-territorial organizations and bodies</t>
+          <t>Heavy Fuel Oil</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Inland water transport</t>
+          <t>Tanning and dressing of leather; manufacture of luggage, handbags, saddlery, harness and footwear (19)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fabricated metal products; except machinery and equipment (28)</t>
+          <t>White Spirit &amp; SBP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Insurance and pension funding, except compulsory social security (66)</t>
+          <t>Post and telecommunications (64)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Financial intermediation services; except insurance and pension funding services (65)</t>
+          <t>Copper products</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Landfill of waste: Food</t>
+          <t>Paper</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fish and other fishing products; services incidental of fishing (05)</t>
+          <t>Furniture; other manufactured goods n.e.c. (36)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Landfill of waste: Inert/metal/hazardous</t>
+          <t>Private households with employed persons (95)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fish products</t>
+          <t>Insurance and pension funding services; except compulsory social security services (66)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Landfill of waste: Paper</t>
+          <t>Processed rice</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Food products nec</t>
+          <t>Natural Gas Liquids</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Landfill of waste: Plastic</t>
+          <t>Computer and related activities (72)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Food waste for treatment: biogasification and land application</t>
+          <t>Manure (biogas treatment)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Landfill of waste: Textiles</t>
+          <t>Processing of Food products nec</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Food waste for treatment: composting and land application</t>
+          <t>Products of meat cattle</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Landfill of waste: Wood</t>
+          <t>Manufacture of ceramic goods</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Food waste for treatment: incineration</t>
+          <t>Recreational; cultural and sporting services (92)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lead, zinc and tin production</t>
+          <t>Manufacture of textiles (17)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Food waste for treatment: landfill</t>
+          <t>Aviation Gasoline</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Manufacture of basic iron and steel and of ferro-alloys and first products thereof</t>
+          <t>Processing vegetable oils and fats</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Food waste for treatment: waste water treatment</t>
+          <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Manufacture of beverages</t>
+          <t>Biogasification of food waste, incl. land application</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Foundry work services</t>
+          <t>Crops nec</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Manufacture of bricks, tiles and construction products, in baked clay</t>
+          <t>Cultivation of sugar cane, sugar beet</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Furniture; other manufactured goods n.e.c. (36)</t>
+          <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Manufacture of cement, lime and plaster</t>
+          <t>Copper production</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gas Coke</t>
+          <t>Paper for treatment: landfill</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Manufacture of ceramic goods</t>
+          <t>Production of electricity by nuclear</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gas Works Gas</t>
+          <t>Textiles waste for treatment: incineration</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Manufacture of coke oven products</t>
+          <t>Processing of nuclear fuel</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gas/Diesel Oil</t>
+          <t>Products of forestry; logging and related services (02)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Manufacture of electrical machinery and apparatus n.e.c. (31)</t>
+          <t>P- and other fertiliser</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gasoline Type Jet Fuel</t>
+          <t>Food waste for treatment: incineration</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Manufacture of fabricated metal products, except machinery and equipment (28)</t>
+          <t>Other land transport</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Glass and glass products</t>
+          <t>Research and development services (73)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Manufacture of fish products</t>
+          <t>Quarrying of stone</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Health and social work services (85)</t>
+          <t>Inland water transportation services</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Manufacture of furniture; manufacturing n.e.c. (36)</t>
+          <t>Animal products nec</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Heavy Fuel Oil</t>
+          <t>Crude petroleum and services related to crude oil extraction; excluding surveying</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Manufacture of gas;</t>
+          <t>Re-processing of secondary preciuos metals into new preciuos metals</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hotel and restaurant services (55)</t>
+          <t>Retail  trade services; except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Manufacture of glass and glass products</t>
+          <t>Pigs farming</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Inert/metal/hazardous waste for treatment: landfill</t>
+          <t>Other waste for treatment: waste water treatment</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Manufacture of machinery and equipment n.e.c. (29)</t>
+          <t>Supporting and auxiliary transport activities; activities of travel agencies (63)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Inland water transportation services</t>
+          <t>Other business services (74)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Manufacture of medical, precision and optical instruments, watches and clocks (33)</t>
+          <t>Manure treatment (biogas), storage and land application</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Insurance and pension funding services; except compulsory social security services (66)</t>
+          <t>P- and other fertiliser</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Manufacture of motor vehicles, trailers and semi-trailers (34)</t>
+          <t>Mining of nickel ores and concentrates</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Intert/metal waste for treatment: incineration</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Manufacture of office machinery and computers (30)</t>
+          <t>Processing of meat poultry</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Iron ores</t>
+          <t>Precious metal ores and concentrates</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+          <t>Activities of membership organisation n.e.c. (91)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Animal products nec</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Manufacture of other transport equipment (35)</t>
+          <t>Quarrying of sand and clay</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kerosene Type Jet Fuel</t>
+          <t>Other non-ferrous metal products</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Manufacture of radio, television and communication equipment and apparatus (32)</t>
+          <t>Inland water transport</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lead; zinc and tin and products thereof</t>
+          <t>Sea and coastal water transportation services</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Manufacture of rubber and plastic products (25)</t>
+          <t>Cultivation of plant-based fibers</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lead; zinc and tin ores and concentrates</t>
+          <t>Cement; lime and plaster</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Manufacture of textiles (17)</t>
+          <t>Manufacture of fabricated metal products, except machinery and equipment (28)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Leather and leather products (19)</t>
+          <t>Petroleum Coke</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Manufacture of tobacco products (16)</t>
+          <t>Mining of coal and lignite; extraction of peat (10)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lignite/Brown Coal</t>
+          <t>Food waste for treatment: composting and land application</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Manufacture of wearing apparel; dressing and dyeing of fur (18)</t>
+          <t>Production of electricity by solar</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Liquefied Petroleum Gases (LPG)</t>
+          <t>Steam and hot water supply services</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials (20)</t>
+          <t>Research and development (73)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lubricants</t>
+          <t>Public administration and defence services; compulsory social security services (75)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Manure treatment (biogas), storage and land application</t>
+          <t>Raw milk</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Machinery and equipment n.e.c. (29)</t>
+          <t>Construction work (45)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Manure treatment (conventional), storage and land application</t>
+          <t>Landfill of waste: Food</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Manure (biogas treatment)</t>
+          <t>Wool; silk-worm cocoons</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Meat animals nec</t>
+          <t>Activities auxiliary to financial intermediation (67)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Manure (conventional treatment)</t>
+          <t>Secondary raw materials</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mining of aluminium ores and concentrates</t>
+          <t>Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials (20)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Meat animals nec</t>
+          <t>Other Hydrocarbons</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mining of chemical and fertilizer minerals, production of salt, other mining and quarrying n.e.c.</t>
+          <t>Incineration of waste: Food</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Meat products nec</t>
+          <t>Coke oven gas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mining of coal and lignite; extraction of peat (10)</t>
+          <t>Sugar refining</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Medical; precision and optical instruments; watches and clocks (33)</t>
+          <t>Distribution and trade services of electricity</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mining of copper ores and concentrates</t>
+          <t>Re-processing of ash into clinker</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Membership organisation services n.e.c. (91)</t>
+          <t>Nuclear fuel</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mining of iron ores</t>
+          <t>Real estate activities (70)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Motor Gasoline</t>
+          <t>Raw milk</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mining of lead, zinc and tin ores and concentrates</t>
+          <t>Landfill of waste: Wood</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Motor vehicles; trailers and semi-trailers (34)</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mining of nickel ores and concentrates</t>
+          <t>Re-processing of secondary construction material into aggregates</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>N-fertiliser</t>
+          <t>Intert/metal waste for treatment: incineration</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mining of other non-ferrous metal ores and concentrates</t>
+          <t>Steam and hot water supply</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Naphtha</t>
+          <t>Wood waste for treatment: landfill</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mining of precious metal ores and concentrates</t>
+          <t>Aluminium production</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Natural Gas Liquids</t>
+          <t>Lead; zinc and tin ores and concentrates</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mining of uranium and thorium ores (12)</t>
+          <t>Plastics, basic</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Natural gas and services related to natural gas extraction; excluding surveying</t>
+          <t>Sand and clay</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>N-fertiliser</t>
+          <t>Re-processing of secondary copper into new copper</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nickel ores and concentrates</t>
+          <t>Electricity from nuclear</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Other business activities (74)</t>
+          <t>Incineration of waste: Paper</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Non-specified Petroleum Products</t>
+          <t>Aluminium ores and concentrates</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Other land transport</t>
+          <t>Extraction, liquefaction, and regasification of other petroleum and gaseous materials</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nuclear fuel</t>
+          <t>Health and social work services (85)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Other non-ferrous metal production</t>
+          <t>Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Office machinery and computers (30)</t>
+          <t>Non-specified Petroleum Products</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Other service activities (93)</t>
+          <t>Transport via railways</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Oil seeds</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>P- and other fertiliser</t>
+          <t>Chemicals nec</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Oil/hazardous waste for treatment: incineration</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Manufacture of medical, precision and optical instruments, watches and clocks (33)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Other Bituminous Coal</t>
+          <t>Ash for treatment; Re-processing of ash into clinker</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Petroleum Refinery</t>
+          <t>Landfill of waste: Textiles</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Other Hydrocarbons</t>
+          <t>Electricity from fossil fuels</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pigs farming</t>
+          <t>Extra-territorial organizations and bodies</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Other Liquid Biofuels</t>
+          <t>Transmission services of electricity</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Plastics, basic</t>
+          <t>Incineration of waste: Textiles</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Other business services (74)</t>
+          <t>Education services (80)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Post and telecommunications (64)</t>
+          <t>Manufacture of fish products</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Other land transportation services</t>
+          <t>Collected and purified water; distribution services of water (41)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Poultry farming</t>
+          <t>Extraction of natural gas and services related to natural gas extraction, excluding surveying</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Other non-ferrous metal ores and concentrates</t>
+          <t>Fish and other fishing products; services incidental of fishing (05)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Precious metals production</t>
+          <t>Manufacture of gas;</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Other non-ferrous metal products</t>
+          <t>Tobacco products (16)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Private households with employed persons (95)</t>
+          <t>Re-processing of secondary glass into new glass</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Other non-metallic mineral products</t>
+          <t>Food waste for treatment: waste water treatment</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Processed rice</t>
+          <t>Mining of aluminium ores and concentrates</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Other services (93)</t>
+          <t>Membership organisation services n.e.c. (91)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Processing of Food products nec</t>
+          <t>Other business activities (74)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Other transport equipment (35)</t>
+          <t>Paper waste for treatment: incineration</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Processing of dairy products</t>
+          <t>Mining of uranium and thorium ores (12)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Other waste for treatment: waste water treatment</t>
+          <t>Secondary copper for treatment; Re-processing of secondary copper into new copper</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Processing of meat cattle</t>
+          <t>Incineration of waste: Plastic</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Oxygen Steel Furnace Gas</t>
+          <t>Transportation services via pipelines</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Processing of meat pigs</t>
+          <t>Recycling of bottles by direct reuse</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>P- and other fertiliser</t>
+          <t>Uranium and thorium ores (12)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Processing of meat poultry</t>
+          <t>Education (80)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Paddy rice</t>
+          <t>Food waste for treatment: biogasification and land application</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Processing of nuclear fuel</t>
+          <t>Incineration of waste: Metals and Inert materials</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Paper and paper products</t>
+          <t>Fish products</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Processing vegetable oils and fats</t>
+          <t>Manufacture of basic iron and steel and of ferro-alloys and first products thereof</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Paper and wood waste for treatment: composting and land application</t>
+          <t>Chemicals nec</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Production of electricity by biomass and waste</t>
+          <t>Re-processing of secondary aluminium into new aluminium</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Paper for treatment: landfill</t>
+          <t>Food waste for treatment: landfill</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Production of electricity by coal</t>
+          <t>Cultivation of crops nec</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Paper waste for treatment: biogasification and land application</t>
+          <t>Extra-territorial organizations and bodies</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Production of electricity by gas</t>
+          <t>Retail sale of automotive fuel</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Paper waste for treatment: incineration</t>
+          <t>Gas Coke</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Production of electricity by hydro</t>
+          <t>Casting of metals</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Paraffin Waxes</t>
+          <t>Refinery Feedstocks</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Production of electricity by nuclear</t>
+          <t>Production of electricity by wind</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Patent Fuel</t>
+          <t>Cereal grains nec</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Production of electricity by other fossil fuels</t>
+          <t>Manufacture of tobacco products (16)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Peat</t>
+          <t>Lubricants</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Production of electricity by other renewables</t>
+          <t>Mining of iron ores</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Petroleum Coke</t>
+          <t>Sugar cane; sugar beet</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Production of electricity by solar</t>
+          <t>Biogasification of paper, incl. land application</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pigs</t>
+          <t>Distribution services of gaseous fuels through mains</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Production of electricity by wind</t>
+          <t>Mining of precious metal ores and concentrates</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Plant-based fibers</t>
+          <t>Aluminium and aluminium products</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Production of meat products nec</t>
+          <t>Re-processing of secondary wood material into new wood material</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Plastic waste for treatment: incineration</t>
+          <t>Coke Oven Coke</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Public administration and defence; compulsory social security (75)</t>
+          <t>Waste water treatment, food</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Plastic waste for treatment: landfill</t>
+          <t>Air transport services (62)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Publishing, printing and reproduction of recorded media (22)</t>
+          <t>Processing of meat pigs</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Plastics; basic</t>
+          <t>Textiles (17)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Pulp</t>
+          <t>Manufacture of radio, television and communication equipment and apparatus (32)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Post and telecommunication services (64)</t>
+          <t>Electrical machinery and apparatus n.e.c. (31)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Quarrying of sand and clay</t>
+          <t>Wholesale trade and commission trade, except of motor vehicles and motorcycles (51)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Rubber and plastic products (25)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Quarrying of stone</t>
+          <t>Renting of machinery and equipment without operator and of personal and household goods (71)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Precious metal ores and concentrates</t>
+          <t>Sewage sludge for treatment: biogasification and land application</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Raw milk</t>
+          <t>Wool, silk-worm cocoons</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Precious metals</t>
+          <t>Coking Coal</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Re-processing of ash into clinker</t>
+          <t>Fishing, operating of fish hatcheries and fish farms; service activities incidental to fishing (05)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Printed matter and recorded media (22)</t>
+          <t>Secondary plastic for treatment; Re-processing of secondary plastic into new plastic</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Re-processing of secondary aluminium into new aluminium</t>
+          <t>Processing of meat cattle</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Private households with employed persons (95)</t>
+          <t>Kerosene Type Jet Fuel</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Re-processing of secondary construction material into aggregates</t>
+          <t>Extraction of crude petroleum and services related to crude oil extraction, excluding surveying</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Processed rice</t>
+          <t>Plant-based fibers</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Re-processing of secondary copper into new copper</t>
+          <t>Manufacture of rubber and plastic products (25)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Products of forestry; logging and related services (02)</t>
+          <t>Bricks; tiles and construction products; in baked clay</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Re-processing of secondary glass into new glass</t>
+          <t>Air transport (62)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Products of meat cattle</t>
+          <t>Gas Works Gas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Re-processing of secondary lead into new lead</t>
+          <t>Precious metals production</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Products of meat pigs</t>
+          <t>Other services (93)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
+          <t>N-fertiliser</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Products of meat poultry</t>
+          <t>Fabricated metal products; except machinery and equipment (28)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Re-processing of secondary paper into new pulp</t>
+          <t>Cultivation of paddy rice</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Public administration and defence services; compulsory social security services (75)</t>
+          <t>Secondary construction material for treatment; Re-processing of secondary construction material into aggregates</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Re-processing of secondary plastic into new plastic</t>
+          <t>Waste water treatment, other</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pulp</t>
+          <t>Electricity from renewables</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Re-processing of secondary preciuos metals into new preciuos metals</t>
+          <t>Transport via pipelines</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Radio; television and communication equipment and apparatus (32)</t>
+          <t>Lignite/Brown Coal</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Re-processing of secondary steel into new steel</t>
+          <t>Meat animals nec</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Railway transportation services</t>
+          <t>Gasoline Type Jet Fuel</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Re-processing of secondary wood material into new wood material</t>
+          <t>Manufacture of cement, lime and plaster</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Raw milk</t>
+          <t>Additives/Blending Components</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Real estate activities (70)</t>
+          <t>Distribution of gaseous fuels through mains</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Real estate services (70)</t>
+          <t>Post and telecommunication services (64)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Recreational, cultural and sporting activities (92)</t>
+          <t>Production of electricity by other fossil fuels</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Recreational; cultural and sporting services (92)</t>
+          <t>Products of meat pigs</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Recycling of bottles by direct reuse</t>
+          <t>Pulp</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Refinery Feedstocks</t>
+          <t>Gas/Diesel Oil</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Recycling of waste and scrap</t>
+          <t>Distribution and trade of electricity</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Refinery Gas</t>
+          <t>Ceramic goods</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Renting of machinery and equipment without operator and of personal and household goods (71)</t>
+          <t>Composting of food waste, incl. land application</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Renting services of machinery and equipment without operator and of personal and household goods (71)</t>
+          <t>Biodiesels</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Research and development (73)</t>
+          <t>Manufacture of other transport equipment (35)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Research and development services (73)</t>
+          <t>Financial intermediation services; except insurance and pension funding services (65)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Retail sale of automotive fuel</t>
+          <t>Retail trade, except of motor vehicles and motorcycles; repair of personal and household goods (52)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Retail  trade services; except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
+          <t>Anthracite</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Retail trade, except of motor vehicles and motorcycles; repair of personal and household goods (52)</t>
+          <t>Transmission of electricity</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Retail trade services of motor fuel</t>
+          <t>Secondary lead for treatment; Re-processing of secondary lead into new lead</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
+          <t>Landfill of waste: Paper</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rubber and plastic products (25)</t>
+          <t>Office machinery and computers (30)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sea and coastal water transport</t>
+          <t>Forestry, logging and related service activities (02)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sale; maintenance; repair of motor vehicles; motor vehicles parts; motorcycles; motor cycles parts and accessoiries</t>
+          <t>N-fertiliser</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Steam and hot water supply</t>
+          <t>Incineration of waste: Oil/Hazardous waste</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sand and clay</t>
+          <t>Blast Furnace Gas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sugar refining</t>
+          <t>Mining of copper ores and concentrates</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sea and coastal water transportation services</t>
+          <t>Biogasoline</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Supporting and auxiliary transport activities; activities of travel agencies (63)</t>
+          <t>Re-processing of secondary paper into new pulp</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Secondary aluminium for treatment; Re-processing of secondary aluminium into new aluminium</t>
+          <t>Railway transportation services</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tanning and dressing of leather; manufacture of luggage, handbags, saddlery, harness and footwear (19)</t>
+          <t>Sea and coastal water transport</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Secondary construction material for treatment; Re-processing of secondary construction material into aggregates</t>
+          <t>Other transport equipment (35)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transmission of electricity</t>
+          <t>Manufacture of motor vehicles, trailers and semi-trailers (34)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Secondary copper for treatment; Re-processing of secondary copper into new copper</t>
+          <t>Leather and leather products (19)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Transport via pipelines</t>
+          <t>Cultivation of vegetables, fruit, nuts</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Secondary glass for treatment; Re-processing of secondary glass into new glass</t>
+          <t>Meat animals nec</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Transport via railways</t>
+          <t>Lead, zinc and tin production</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Secondary lead for treatment; Re-processing of secondary lead into new lead</t>
+          <t>Vegetables; fruit; nuts</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Waste water treatment, food</t>
+          <t>Manufacture of glass and glass products</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Secondary other non-ferrous metals for treatment; Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
+          <t>Other non-ferrous metal ores and concentrates</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Waste water treatment, other</t>
+          <t>Production of electricity by biomass and waste</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Secondary paper for treatment; Re-processing of secondary paper into new pulp</t>
+          <t>Printed matter and recorded media (22)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wholesale trade and commission trade, except of motor vehicles and motorcycles (51)</t>
+          <t>Incineration of waste: Wood</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Secondary plastic for treatment; Re-processing of secondary plastic into new plastic</t>
+          <t>Natural gas and services related to natural gas extraction; excluding surveying</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Wool, silk-worm cocoons</t>
+          <t>Blast furnace gas production</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Secondary preciuos metals for treatment; Re-processing of secondary preciuos metals into new preciuos metals</t>
+          <t>Peat</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Secondary raw materials</t>
+          <t>Real estate services (70)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Secondary steel for treatment; Re-processing of secondary steel into new steel</t>
+          <t>Naphtha</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Services auxiliary to financial intermediation (67)</t>
+          <t>Secondary steel for treatment; Re-processing of secondary steel into new steel</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sewage sludge for treatment: biogasification and land application</t>
+          <t>Pulp</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Steam and hot water supply services</t>
+          <t>Other Bituminous Coal</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>Products of meat poultry</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sub-Bituminous Coal</t>
+          <t>Glass and glass products</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sugar</t>
+          <t>Machinery and equipment n.e.c. (29)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sugar cane; sugar beet</t>
+          <t>Motor vehicles; trailers and semi-trailers (34)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Supporting and auxiliary transport services; travel agency services (63)</t>
+          <t>Plastic waste for treatment: incineration</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Textiles (17)</t>
+          <t>Cattle</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Textiles waste for treatment: incineration</t>
+          <t>Food products nec</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Textiles waste for treatment: landfill</t>
+          <t>Bottles for treatment; Recycling of bottles by direct reuse</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tobacco products (16)</t>
+          <t>Plastic waste for treatment: landfill</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transmission services of electricity</t>
+          <t>Textiles waste for treatment: landfill</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transportation services via pipelines</t>
+          <t>Wholesale trade and commission trade services; except of motor vehicles and motorcycles (51)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Uranium and thorium ores (12)</t>
+          <t>products of Vegetable oils and fats</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vegetables; fruit; nuts</t>
+          <t>Secondary preciuos metals for treatment; Re-processing of secondary preciuos metals into new preciuos metals</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Wearing apparel; furs (18)</t>
+          <t>Ethane</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Radio; television and communication equipment and apparatus (32)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>White Spirit &amp; SBP</t>
+          <t>Paraffin Waxes</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Wholesale trade and commission trade services; except of motor vehicles and motorcycles (51)</t>
+          <t>Plastics; basic</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
+          <t>Other land transportation services</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Wood material for treatment; Re-processing of secondary wood material into new wood material</t>
+          <t>Bitumen</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Wood waste for treatment: incineration</t>
+          <t>Medical; precision and optical instruments; watches and clocks (33)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Wood waste for treatment: landfill</t>
+          <t>Wood material for treatment; Re-processing of secondary wood material into new wood material</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Wool; silk-worm cocoons</t>
+          <t>Nickel ores and concentrates</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>products of Vegetable oils and fats</t>
+          <t>Paper and wood waste for treatment: composting and land application</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -5315,17 +5315,17 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -5335,17 +5335,17 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
@@ -5355,17 +5355,17 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
@@ -5375,17 +5375,17 @@
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
@@ -5395,17 +5395,17 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AA3" s="1" t="inlineStr">
@@ -5415,17 +5415,17 @@
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="AF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AI3" s="1" t="inlineStr">
@@ -5455,17 +5455,17 @@
       </c>
       <c r="AJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AK3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AM3" s="1" t="inlineStr">
@@ -5475,17 +5475,17 @@
       </c>
       <c r="AN3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AO3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
@@ -5495,17 +5495,17 @@
       </c>
       <c r="AR3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AS3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AU3" s="1" t="inlineStr">
@@ -5515,17 +5515,17 @@
       </c>
       <c r="AV3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AW3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AY3" s="1" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="AZ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BA3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BC3" s="1" t="inlineStr">
@@ -5555,17 +5555,17 @@
       </c>
       <c r="BD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BE3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BG3" s="1" t="inlineStr">
@@ -5575,17 +5575,17 @@
       </c>
       <c r="BH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BK3" s="1" t="inlineStr">
@@ -5595,17 +5595,17 @@
       </c>
       <c r="BL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BM3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BN3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BO3" s="1" t="inlineStr">
@@ -5615,17 +5615,17 @@
       </c>
       <c r="BP3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BQ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BR3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BS3" s="1" t="inlineStr">
@@ -5635,17 +5635,17 @@
       </c>
       <c r="BT3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BU3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BV3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BW3" s="1" t="inlineStr">
@@ -5655,17 +5655,17 @@
       </c>
       <c r="BX3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BY3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CA3" s="1" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="CB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CC3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CE3" s="1" t="inlineStr">
@@ -5695,17 +5695,17 @@
       </c>
       <c r="CF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CG3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
@@ -5715,12 +5715,12 @@
       </c>
       <c r="CJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CK3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -6737,17 +6737,17 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -6757,17 +6757,17 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -6777,17 +6777,17 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
@@ -6817,17 +6817,17 @@
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
@@ -6837,17 +6837,17 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AA3" s="1" t="inlineStr">
@@ -6857,17 +6857,17 @@
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
@@ -6877,17 +6877,17 @@
       </c>
       <c r="AF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AI3" s="1" t="inlineStr">
@@ -6897,17 +6897,17 @@
       </c>
       <c r="AJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AK3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AM3" s="1" t="inlineStr">
@@ -6917,17 +6917,17 @@
       </c>
       <c r="AN3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AO3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
@@ -6937,17 +6937,17 @@
       </c>
       <c r="AR3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AS3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AU3" s="1" t="inlineStr">
@@ -6957,17 +6957,17 @@
       </c>
       <c r="AV3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AW3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AY3" s="1" t="inlineStr">
@@ -6977,17 +6977,17 @@
       </c>
       <c r="AZ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BA3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BC3" s="1" t="inlineStr">
@@ -6997,17 +6997,17 @@
       </c>
       <c r="BD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BE3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BG3" s="1" t="inlineStr">
@@ -7017,17 +7017,17 @@
       </c>
       <c r="BH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BK3" s="1" t="inlineStr">
@@ -7037,17 +7037,17 @@
       </c>
       <c r="BL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BM3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BN3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BO3" s="1" t="inlineStr">
@@ -7057,17 +7057,17 @@
       </c>
       <c r="BP3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BQ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BR3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BS3" s="1" t="inlineStr">
@@ -7077,17 +7077,17 @@
       </c>
       <c r="BT3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BU3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BV3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BW3" s="1" t="inlineStr">
@@ -7097,17 +7097,17 @@
       </c>
       <c r="BX3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BY3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CA3" s="1" t="inlineStr">
@@ -7117,17 +7117,17 @@
       </c>
       <c r="CB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CC3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CE3" s="1" t="inlineStr">
@@ -7137,17 +7137,17 @@
       </c>
       <c r="CF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CG3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
@@ -7157,12 +7157,12 @@
       </c>
       <c r="CJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CK3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8450,7 +8450,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -9736,17 +9736,17 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -9756,17 +9756,17 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
@@ -9776,17 +9776,17 @@
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -9796,17 +9796,17 @@
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
@@ -9816,17 +9816,17 @@
       </c>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
@@ -9836,17 +9836,17 @@
       </c>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AA3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
@@ -9856,17 +9856,17 @@
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AG3" s="1" t="inlineStr">
@@ -9876,17 +9876,17 @@
       </c>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AI3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AK3" s="1" t="inlineStr">
@@ -9896,17 +9896,17 @@
       </c>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AM3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AN3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AO3" s="1" t="inlineStr">
@@ -9916,17 +9916,17 @@
       </c>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AR3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AS3" s="1" t="inlineStr">
@@ -9936,17 +9936,17 @@
       </c>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AU3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AV3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="AW3" s="1" t="inlineStr">
@@ -9956,17 +9956,17 @@
       </c>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="AY3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="AZ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BA3" s="1" t="inlineStr">
@@ -9976,17 +9976,17 @@
       </c>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BC3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BE3" s="1" t="inlineStr">
@@ -9996,17 +9996,17 @@
       </c>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BG3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BI3" s="1" t="inlineStr">
@@ -10016,17 +10016,17 @@
       </c>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BK3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BM3" s="1" t="inlineStr">
@@ -10036,17 +10036,17 @@
       </c>
       <c r="BN3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BO3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BP3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BQ3" s="1" t="inlineStr">
@@ -10056,17 +10056,17 @@
       </c>
       <c r="BR3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BS3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BT3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BU3" s="1" t="inlineStr">
@@ -10076,17 +10076,17 @@
       </c>
       <c r="BV3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="BW3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="BX3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="BY3" s="1" t="inlineStr">
@@ -10096,17 +10096,17 @@
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CA3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CB3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CC3" s="1" t="inlineStr">
@@ -10116,17 +10116,17 @@
       </c>
       <c r="CD3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CE3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CF3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CG3" s="1" t="inlineStr">
@@ -10136,17 +10136,17 @@
       </c>
       <c r="CH3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CI3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="CJ3" s="1" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="CK3" s="1" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="CL3" s="1" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="CM3" s="1" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reformer</t>
         </is>
       </c>
     </row>
@@ -10466,48 +10466,48 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Steam reformer</t>
+          <t>Electrolysis hydrogen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n.</t>
+          <t>kg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Electrolyser</t>
+          <t>Steam reforming hydrogen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n.</t>
+          <t>kg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Steam reforming hydrogen</t>
+          <t>Electrolyser</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>n.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Electrolysis hydrogen</t>
+          <t>Steam reformer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>n.</t>
         </is>
       </c>
     </row>
